--- a/biology/Zoologie/Coliade_du_trèfle/Coliade_du_trèfle.xlsx
+++ b/biology/Zoologie/Coliade_du_trèfle/Coliade_du_trèfle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coliade_du_tr%C3%A8fle</t>
+          <t>Coliade_du_trèfle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias philodice
 Le Coliade du trèfle (Colias philodice) est une espèce d'insecte lépidoptère de la famille des Pieridae. Il fait partie de la sous-famille des Coliadinae et du genre Colias qui réside en Amérique du Nord où il est commun. D'où son nom en anglais de Common Sulphur ou Clouded Sulphur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coliade_du_tr%C3%A8fle</t>
+          <t>Coliade_du_trèfle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias philodice a été nommé par Jean-Baptiste Godart en 1819
-Synonyme : Eurymus philodice ; Dyar, 1903[1].
+Synonyme : Eurymus philodice ; Dyar, 1903.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coliade_du_tr%C3%A8fle</t>
+          <t>Coliade_du_trèfle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le Coliade du trèfle se nomme Common Sulphur ou Clouded Sulphur en anglais.
-Sous-espèces
-Colias philodice philodice au Canada, Montana, Colorado, Californie, Virginie, Géorgie, Massachusetts, Illinois, Michigan, Pennsylvanie, État de New-York, Utah, Mexique.
-Colias philodice eriphyle (Edwards, 1876) au Colorado, Wyoming, Montana et en Colombie-Britannique.
-Colias philodice guatemalena (Röber, 1909) au Guatemala.
-Colias philodice vitabunda (Hovanitz, 1943) en Alaska et au Canada en Colombie-Britannique, dans le Yukon et dans les Territoires du Nord-Ouest[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade du trèfle se nomme Common Sulphur ou Clouded Sulphur en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -561,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coliade_du_tr%C3%A8fle</t>
+          <t>Coliade_du_trèfle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,16 +588,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Noms vernaculaires</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Coliade du trèfle est un papillon de taille moyenne (son envergure varie de 32 à 70 mm) aux ailes de couleur jaune clair bordées de noir chez le mâle, de noir taché de jaune chez la femelle. Les femelles de Colias philodice vitabunda sont souvent blanches
-Le revers présente une ligne de points submarginaux marron et les ailes postérieures deux points argentés cernés de rose[2].
-Chenille
-La chenille, de couleur verte, est ornée d'une bande dorsale foncée et de bandes claires sur les flancs[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Colias philodice philodice au Canada, Montana, Colorado, Californie, Virginie, Géorgie, Massachusetts, Illinois, Michigan, Pennsylvanie, État de New-York, Utah, Mexique.
+Colias philodice eriphyle (Edwards, 1876) au Colorado, Wyoming, Montana et en Colombie-Britannique.
+Colias philodice guatemalena (Röber, 1909) au Guatemala.
+Colias philodice vitabunda (Hovanitz, 1943) en Alaska et au Canada en Colombie-Britannique, dans le Yukon et dans les Territoires du Nord-Ouest.</t>
         </is>
       </c>
     </row>
@@ -595,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coliade_du_tr%C3%A8fle</t>
+          <t>Coliade_du_trèfle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,16 +627,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Le Coliade du trèfle vole en deux générations de mai à octobre mais uniquement en juillet août à Terre-Neuve[2].
-Il hiberne au troisième stade de chenille[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont nombreuses, des Astragalus  (dont Astragalus miser, Astragalus adsurgens, Astragalus decumbens,Astragalus crassicarpus, Astragalus plattensis), des Trifolium (Trifolium repens, Trifolium pratense, Trifolium agrarium, Trifolium hybridum, Trifolium longipes), Vicia cracca et Vicia americana, Baptisia tinctoria, Hedysarum boreale, Lathyrus leucanthus, Lotus, Lupinus perennis, Medicago sativa, Medicago hispida, Melilotus alba, Pisum sativum, Robinia pseudoacacia, Thermopsis divaricarpa, des Caragana, des Cytisus[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade du trèfle est un papillon de taille moyenne (son envergure varie de 32 à 70 mm) aux ailes de couleur jaune clair bordées de noir chez le mâle, de noir taché de jaune chez la femelle. Les femelles de Colias philodice vitabunda sont souvent blanches
+Le revers présente une ligne de points submarginaux marron et les ailes postérieures deux points argentés cernés de rose.
 </t>
         </is>
       </c>
@@ -630,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coliade_du_tr%C3%A8fle</t>
+          <t>Coliade_du_trèfle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,16 +661,200 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, de couleur verte, est ornée d'une bande dorsale foncée et de bandes claires sur les flancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coliade_du_trèfle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_du_tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade du trèfle vole en deux générations de mai à octobre mais uniquement en juillet août à Terre-Neuve.
+Il hiberne au troisième stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coliade_du_trèfle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_du_tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont nombreuses, des Astragalus  (dont Astragalus miser, Astragalus adsurgens, Astragalus decumbens,Astragalus crassicarpus, Astragalus plattensis), des Trifolium (Trifolium repens, Trifolium pratense, Trifolium agrarium, Trifolium hybridum, Trifolium longipes), Vicia cracca et Vicia americana, Baptisia tinctoria, Hedysarum boreale, Lathyrus leucanthus, Lotus, Lupinus perennis, Medicago sativa, Medicago hispida, Melilotus alba, Pisum sativum, Robinia pseudoacacia, Thermopsis divaricarpa, des Caragana, des Cytisus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coliade_du_trèfle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_du_tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias philodice est présent en Amérique du Nord, dans le nord, l'est et l'ouest de la Colombie-Britannique au Guatemala[1]. Il est donc présent au Canada, en Colombie-Britannique, dans le Yukon et dans les Territoires du Nord-Ouest, aux USA en Alaska, au Montana, Colorado, Californie, Virginie, Géorgie, Massachusetts, Illinois, Michigan, Pennsylvanie, État de New-York, Utah, Colorado et Wyoming, au Mexique et au Guatemala.
-Biotope
-Il réside dans les champs, le long des routes et près des mares.
-Protection
-Pas de statut de protection particulier[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias philodice est présent en Amérique du Nord, dans le nord, l'est et l'ouest de la Colombie-Britannique au Guatemala. Il est donc présent au Canada, en Colombie-Britannique, dans le Yukon et dans les Territoires du Nord-Ouest, aux USA en Alaska, au Montana, Colorado, Californie, Virginie, Géorgie, Massachusetts, Illinois, Michigan, Pennsylvanie, État de New-York, Utah, Colorado et Wyoming, au Mexique et au Guatemala.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coliade_du_trèfle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_du_tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les champs, le long des routes et près des mares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coliade_du_trèfle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_du_tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
